--- a/bots/crawl_ch/output/toilet_coop_2022-08-08.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-08.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -654,12 +654,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen 16.50 Schweizer Franken</t>
+          <t>Subito Haushaltspapier decor 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -732,324 +732,324 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6498681</t>
+          <t>6724076</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>40ST</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Duckies</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.07/1ST</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6724076</t>
+          <t>6346813</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40ST</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>4.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Duckies</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.98/1Rol</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6691348</t>
+          <t>6498681</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
+          <t>subito Haushaltspapier decor 4 Rollen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4x 60ST</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.03/1ST</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6873015</t>
+          <t>6691348</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12Rol</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>4x 60ST</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.91/1Rol</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6346813</t>
+          <t>6873015</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9Rol</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>6</v>
-      </c>
+          <t>12Rol</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.98/1Rol</t>
+          <t>0.91/1Rol</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -1962,48 +1962,50 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6865139</t>
+          <t>6866582</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kleenex Balsam Box 4x56 Stück</t>
+          <t>Tempo Bamboo Eco Box</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-balsam-box-4x56-stueck/p/6865139</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>224ST</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>90ST</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Kleenex</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2013,7 +2015,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2028,55 +2030,53 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Kleenex Balsam Box 4x56 Stück 30% Aktion 6.95 Schweizer Franken statt 10.00 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6866582</t>
+          <t>6865139</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box</t>
+          <t>Kleenex Balsam Box 4x56 Stück</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-balsam-box-4x56-stueck/p/6865139</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>90ST</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
+          <t>224ST</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Kleenex</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
+          <t>Kleenex Balsam Box 4x56 Stück 30% Aktion 6.95 Schweizer Franken statt 10.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-08 07:03:46</t>
+          <t>2022-08-08 20:59:41</t>
         </is>
       </c>
     </row>
